--- a/biology/Zoologie/Gonyosoma_margaritatum/Gonyosoma_margaritatum.xlsx
+++ b/biology/Zoologie/Gonyosoma_margaritatum/Gonyosoma_margaritatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonyosoma margaritatum est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonyosoma margaritatum est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 en Malaisie péninsulaire et au Sarawak ;
 à Singapour.
-Selon l'UICN, elle occupe toute l'île de Bornéo[2].
+Selon l'UICN, elle occupe toute l'île de Bornéo.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[3] Peters indique que le spécimen en sa possession mesure 153 cm dont 37 cm pour la queue.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Peters indique que le spécimen en sa possession mesure 153 cm dont 37 cm pour la queue.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1871 : Über neue Reptilien aus Ostafrika und Sarawak (Borneo), vorzüglich aus der Sammlung des Hrn. Marquis J. Doria zu Genua. Monatsberichte der Königlichen Akademie der Wissenschaften zu Berlin, vol. 1871, p. 566-581 (texte intégral).</t>
         </is>
